--- a/LubanConfig/DataTables/Datas/#MilestoneParam.xlsx
+++ b/LubanConfig/DataTables/Datas/#MilestoneParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\monster-ball\LubanConfig\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C5248-D001-4C50-B990-AB8233FE138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3EB7D-54E9-44D5-A549-765B2947B585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MilestoneParam" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Int
@@ -39,13 +40,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Int
@@ -53,13 +55,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Int
@@ -68,13 +71,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Int
@@ -83,13 +87,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Int
@@ -103,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -138,12 +143,20 @@
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>MilstoneLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MilestoneMulti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -175,6 +188,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +225,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:F2"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -441,20 +465,24 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -482,8 +510,8 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -494,8 +522,12 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -521,8 +553,6 @@
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -552,8 +582,6 @@
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -583,20 +611,24 @@
       <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
+      <c r="D5" s="5">
+        <v>1.5</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -619,23 +651,25 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>25000</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5">
+        <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.25</v>
+      <c r="D6" s="5">
+        <v>1.75</v>
       </c>
       <c r="E6" s="1">
         <v>1.25</v>
       </c>
       <c r="F6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -659,8 +693,12 @@
     <row r="7" spans="1:27">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -688,8 +726,12 @@
     <row r="8" spans="1:27">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.25</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -717,8 +759,12 @@
     <row r="9" spans="1:27">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.35</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -746,8 +792,12 @@
     <row r="10" spans="1:27">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.75</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -775,8 +825,12 @@
     <row r="11" spans="1:27">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
